--- a/experiment_results/polling_etl.xlsx
+++ b/experiment_results/polling_etl.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yguo/Documents/Research/Papers/ASE2017-FlTechsComp/Experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yguo/RubymineProjects/altar/experiment_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-48520" yWindow="840" windowWidth="20560" windowHeight="25080" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-48520" yWindow="840" windowWidth="41540" windowHeight="25080" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="polling_Simple" sheetId="1" r:id="rId1"/>
     <sheet name="polling_Moderate" sheetId="2" r:id="rId2"/>
     <sheet name="polling_Complex" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Join" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="122">
   <si>
     <t>Nodes</t>
   </si>
@@ -301,12 +302,108 @@
   <si>
     <t>crosstab</t>
   </si>
+  <si>
+    <t>script_name</t>
+  </si>
+  <si>
+    <t>test_id</t>
+  </si>
+  <si>
+    <t>m_u_tuple_count</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>total_score</t>
+  </si>
+  <si>
+    <t>tarantular_hm</t>
+  </si>
+  <si>
+    <t>ochihai_hm</t>
+  </si>
+  <si>
+    <t>kulczynski2_hm</t>
+  </si>
+  <si>
+    <t>naish2_hm</t>
+  </si>
+  <si>
+    <t>wong1_hm</t>
+  </si>
+  <si>
+    <t>sober_hm</t>
+  </si>
+  <si>
+    <t>liblit_hm</t>
+  </si>
+  <si>
+    <t>mw_hm</t>
+  </si>
+  <si>
+    <t>crosstab_hm</t>
+  </si>
+  <si>
+    <t>tarantular_duration</t>
+  </si>
+  <si>
+    <t>total_test_cnt</t>
+  </si>
+  <si>
+    <t>polling_etl_jc3</t>
+  </si>
+  <si>
+    <t>polling_etl_jm1</t>
+  </si>
+  <si>
+    <t>polling_etl_jc2</t>
+  </si>
+  <si>
+    <t>polling_etl_js1</t>
+  </si>
+  <si>
+    <t>polling_etl_jc5</t>
+  </si>
+  <si>
+    <t>polling_etl_jc4</t>
+  </si>
+  <si>
+    <t>polling_etl_jm4</t>
+  </si>
+  <si>
+    <t>polling_etl_js3</t>
+  </si>
+  <si>
+    <t>polling_etl_js2</t>
+  </si>
+  <si>
+    <t>polling_etl_jm5</t>
+  </si>
+  <si>
+    <t>polling_etl_jc1</t>
+  </si>
+  <si>
+    <t>polling_etl_jm2</t>
+  </si>
+  <si>
+    <t>polling_etl_js5</t>
+  </si>
+  <si>
+    <t>polling_etl_js4</t>
+  </si>
+  <si>
+    <t>polling_etl_jm3</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -457,6 +554,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -724,14 +824,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH67"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
       <selection activeCell="AH51" sqref="AH51:AH55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
@@ -752,7 +852,7 @@
     <col min="27" max="27" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="16" customHeight="1">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -856,7 +956,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -966,7 +1066,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="2" customFormat="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1076,7 +1176,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="2" customFormat="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1186,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1296,7 +1396,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1406,7 +1506,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" s="2" customFormat="1">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1516,7 +1616,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" s="1" customFormat="1">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1626,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1736,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" s="2" customFormat="1">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1846,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" s="2" customFormat="1">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -1956,7 +2056,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -2066,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" s="2" customFormat="1">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -2176,7 +2276,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2286,7 +2386,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2396,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2506,7 +2606,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34">
       <c r="F17" s="8" t="s">
         <v>33</v>
       </c>
@@ -2533,7 +2633,7 @@
       </c>
       <c r="AH17" s="2"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34">
       <c r="F18" s="8">
         <f>AVERAGE(F2:F16)</f>
         <v>42.333333333333336</v>
@@ -2567,7 +2667,7 @@
         <v>0.74222222222222223</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34">
       <c r="F19" s="8" t="s">
         <v>30</v>
       </c>
@@ -2590,7 +2690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34">
       <c r="F20" s="8">
         <f>STDEV(F2:F16)</f>
         <v>57.697074284164366</v>
@@ -2620,51 +2720,51 @@
         <v>0.25987379924569476</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34">
       <c r="G21" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34">
       <c r="G22" s="8">
         <f>AVERAGEIF(Z2:Z16,0,G2:G16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34">
       <c r="G23" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34">
       <c r="G24" s="8">
         <f t="array" ref="G24">_xlfn.STDEV.S(IF(Z2:Z16=0,G2:G16))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34">
       <c r="G25" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34">
       <c r="G26" s="8">
         <f>AVERAGEIF(Z2:Z16,1,G2:G16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34">
       <c r="G27" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34">
       <c r="G28" s="8">
         <f t="array" ref="G28">_xlfn.STDEV.S(IF(Z2:Z16=1,G2:G16))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" s="2" customFormat="1">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -2774,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" s="2" customFormat="1">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -2878,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2988,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3092,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3202,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3306,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" s="2" customFormat="1">
       <c r="A35" s="2">
         <v>4</v>
       </c>
@@ -3416,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" s="3" customFormat="1">
       <c r="A36" s="3">
         <v>4</v>
       </c>
@@ -3520,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34">
       <c r="A37">
         <v>5</v>
       </c>
@@ -3630,7 +3730,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" s="1" customFormat="1">
       <c r="A38" s="1">
         <v>5</v>
       </c>
@@ -3734,73 +3834,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34">
       <c r="G39" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34">
       <c r="G40" s="8">
         <f>AVERAGE(G29:G38)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34">
       <c r="G41" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34">
       <c r="G42" s="8">
         <f>STDEV(G29:G38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34">
       <c r="G43" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34">
       <c r="G44" s="8">
         <f>AVERAGEIF(Z29:Z38,0,G29:G38)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34">
       <c r="G45" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34">
       <c r="G46" s="8">
         <f t="array" ref="G46">_xlfn.STDEV.S(IF(Z29:Z38=0,G29:G38))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34">
       <c r="G47" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34">
       <c r="G48" s="8">
         <f>AVERAGEIF(Z29:Z38,1,G29:G38)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34">
       <c r="G49" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34">
       <c r="G50" s="8">
         <f t="array" ref="G50">_xlfn.STDEV.S(IF(Z29:Z38=1,G29:G38))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" s="2" customFormat="1">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -3911,7 +4011,7 @@
         <v>0.58333299999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34">
       <c r="A52">
         <v>2</v>
       </c>
@@ -4022,7 +4122,7 @@
         <v>0.83333000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34">
       <c r="A53">
         <v>3</v>
       </c>
@@ -4133,7 +4233,7 @@
         <v>0.35555599999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" s="2" customFormat="1">
       <c r="A54" s="2">
         <v>4</v>
       </c>
@@ -4244,7 +4344,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34">
       <c r="A55">
         <v>5</v>
       </c>
@@ -4355,7 +4455,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34">
       <c r="G56" s="8" t="s">
         <v>33</v>
       </c>
@@ -4384,7 +4484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34">
       <c r="G57" s="8">
         <f>AVERAGE(G51:G55)</f>
         <v>0.97140000000000004</v>
@@ -4414,7 +4514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34">
       <c r="G58" s="8" t="s">
         <v>30</v>
       </c>
@@ -4440,7 +4540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34">
       <c r="G59" s="8">
         <f>STDEV(G51:G55)</f>
         <v>6.3951544156493997E-2</v>
@@ -4470,7 +4570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34">
       <c r="G60" s="8" t="s">
         <v>41</v>
       </c>
@@ -4499,7 +4599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34">
       <c r="G61" s="8">
         <f>AVERAGEIF(Z46:Z55,0,G46:G55)</f>
         <v>0.95233333333333337</v>
@@ -4529,7 +4629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34">
       <c r="A62" s="2" t="s">
         <v>36</v>
       </c>
@@ -4561,7 +4661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34">
       <c r="A63" s="2" t="s">
         <v>37</v>
       </c>
@@ -4591,7 +4691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34">
       <c r="G64" s="8" t="s">
         <v>42</v>
       </c>
@@ -4620,7 +4720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:21">
       <c r="G65" s="8">
         <f>AVERAGEIF(Z46:Z55,1,G46:G55)</f>
         <v>1</v>
@@ -4644,12 +4744,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:21">
       <c r="G66" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="7:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:21">
       <c r="G67" s="8">
         <f t="array" ref="G67">_xlfn.STDEV.S(IF(Z46:Z55=1,G46:G55))</f>
         <v>0</v>
@@ -4662,14 +4762,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH65"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
       <selection activeCell="AH51" sqref="AH51:AH55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="8"/>
@@ -4687,7 +4787,7 @@
     <col min="27" max="27" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="16" customHeight="1">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4791,7 +4891,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4901,7 +5001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5011,7 +5111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5121,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5231,7 +5331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5341,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34">
       <c r="A7">
         <v>2</v>
       </c>
@@ -5451,7 +5551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5561,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5671,7 +5771,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5781,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" s="2" customFormat="1">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -5891,7 +5991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -6001,7 +6101,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" s="2" customFormat="1">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -6111,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" s="2" customFormat="1">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -6221,7 +6321,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" s="2" customFormat="1">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -6331,7 +6431,7 @@
         <v>0.28571400000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" s="2" customFormat="1">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -6441,7 +6541,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34">
       <c r="F17" s="8" t="s">
         <v>33</v>
       </c>
@@ -6471,7 +6571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34">
       <c r="F18" s="8">
         <f>AVERAGE(F2:F16)</f>
         <v>22.066666666666666</v>
@@ -6524,7 +6624,7 @@
         <v>0.54809523809523797</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34">
       <c r="F19" s="8" t="s">
         <v>30</v>
       </c>
@@ -6554,7 +6654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34">
       <c r="F20" s="8">
         <f>STDEV(F2:F16)</f>
         <v>16.18847326546474</v>
@@ -6607,31 +6707,31 @@
         <v>0.30101356693098502</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34">
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34">
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34">
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34">
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34">
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34">
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34">
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34">
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34">
       <c r="A29">
         <v>1</v>
       </c>
@@ -6741,7 +6841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6845,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34">
       <c r="A31">
         <v>2</v>
       </c>
@@ -6955,7 +7055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34">
       <c r="A32">
         <v>2</v>
       </c>
@@ -7059,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34">
       <c r="A33">
         <v>3</v>
       </c>
@@ -7169,7 +7269,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34">
       <c r="A34">
         <v>3</v>
       </c>
@@ -7273,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" s="2" customFormat="1">
       <c r="A35" s="2">
         <v>4</v>
       </c>
@@ -7383,7 +7483,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" s="2" customFormat="1">
       <c r="A36" s="2">
         <v>4</v>
       </c>
@@ -7487,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" s="2" customFormat="1">
       <c r="A37" s="2">
         <v>5</v>
       </c>
@@ -7591,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" s="2" customFormat="1">
       <c r="A38" s="2">
         <v>5</v>
       </c>
@@ -7695,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34">
       <c r="G39" s="16" t="s">
         <v>33</v>
       </c>
@@ -7708,7 +7808,7 @@
       <c r="U39" s="19"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34">
       <c r="G40" s="16">
         <f>AVERAGE(G29:G38)</f>
         <v>0.86666999999999983</v>
@@ -7722,7 +7822,7 @@
       <c r="U40" s="19"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34">
       <c r="G41" s="16" t="s">
         <v>30</v>
       </c>
@@ -7735,7 +7835,7 @@
       <c r="U41" s="19"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34">
       <c r="G42" s="16">
         <f>STDEV(G29:G38)</f>
         <v>0.3220282943055367</v>
@@ -7749,31 +7849,31 @@
       <c r="U42" s="19"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34">
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34">
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34">
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34">
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34">
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34">
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34">
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34">
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34">
       <c r="A51">
         <v>1</v>
       </c>
@@ -7884,7 +7984,7 @@
         <v>0.57777800000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34">
       <c r="A52">
         <v>2</v>
       </c>
@@ -7995,7 +8095,7 @@
         <v>0.52222199999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34">
       <c r="A53">
         <v>3</v>
       </c>
@@ -8105,7 +8205,7 @@
         <v>0.64285700000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" s="2" customFormat="1">
       <c r="A54" s="2">
         <v>4</v>
       </c>
@@ -8216,7 +8316,7 @@
         <v>0.466667</v>
       </c>
     </row>
-    <row r="55" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" s="2" customFormat="1">
       <c r="A55" s="2">
         <v>5</v>
       </c>
@@ -8321,7 +8421,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34">
       <c r="G56" s="8" t="s">
         <v>33</v>
       </c>
@@ -8350,7 +8450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34">
       <c r="G57" s="8">
         <f>AVERAGE(G51:G55)</f>
         <v>0.92061999999999988</v>
@@ -8380,7 +8480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34">
       <c r="G58" s="8" t="s">
         <v>30</v>
       </c>
@@ -8406,7 +8506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34">
       <c r="G59" s="8">
         <f>STDEV(G51:G55)</f>
         <v>7.3617436793194602E-2</v>
@@ -8436,7 +8536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34">
       <c r="P60" s="8">
         <v>3</v>
       </c>
@@ -8456,7 +8556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34">
       <c r="P61" s="26">
         <v>2</v>
       </c>
@@ -8476,7 +8576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34">
       <c r="A62" s="2" t="s">
         <v>36</v>
       </c>
@@ -8499,7 +8599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34">
       <c r="A63" s="2" t="s">
         <v>38</v>
       </c>
@@ -8525,7 +8625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34">
       <c r="P64" s="26" t="str">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -8550,7 +8650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="16:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="16:21">
       <c r="P65" s="26">
         <v>99999</v>
       </c>
@@ -8576,14 +8676,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH59"/>
   <sheetViews>
     <sheetView topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="AH51" sqref="AH51:AH55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
@@ -8599,7 +8699,7 @@
     <col min="27" max="27" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -8703,7 +8803,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8813,7 +8913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8923,7 +9023,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" s="1" customFormat="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9033,7 +9133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9143,7 +9243,7 @@
         <v>0.28570000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>2</v>
       </c>
@@ -9253,7 +9353,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" s="2" customFormat="1">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -9363,7 +9463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9473,7 +9573,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>3</v>
       </c>
@@ -9583,7 +9683,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>3</v>
       </c>
@@ -9693,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34">
       <c r="A11">
         <v>4</v>
       </c>
@@ -9803,7 +9903,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34">
       <c r="A12">
         <v>4</v>
       </c>
@@ -9913,7 +10013,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="25" customHeight="1">
       <c r="A13">
         <v>4</v>
       </c>
@@ -10023,7 +10123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>5</v>
       </c>
@@ -10133,7 +10233,7 @@
         <v>0.28570000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>5</v>
       </c>
@@ -10243,7 +10343,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34">
       <c r="A16">
         <v>5</v>
       </c>
@@ -10353,7 +10453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34">
       <c r="F17" s="8" t="s">
         <v>33</v>
       </c>
@@ -10377,7 +10477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34">
       <c r="F18" s="8">
         <f>AVERAGE(F2:F16)</f>
         <v>8.1999999999999993</v>
@@ -10424,7 +10524,7 @@
         <v>0.31921596921596929</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34">
       <c r="F19" s="8" t="s">
         <v>30</v>
       </c>
@@ -10448,7 +10548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34">
       <c r="F20" s="8">
         <f>STDEV(F2:F16)</f>
         <v>8.3938753181794912</v>
@@ -10495,31 +10595,31 @@
         <v>0.17548881660594839</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34">
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34">
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34">
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34">
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34">
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34">
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34">
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34">
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34">
       <c r="A29">
         <v>1</v>
       </c>
@@ -10629,7 +10729,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34">
       <c r="A30">
         <v>1</v>
       </c>
@@ -10733,7 +10833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34">
       <c r="A31">
         <v>2</v>
       </c>
@@ -10843,7 +10943,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34">
       <c r="A32">
         <v>2</v>
       </c>
@@ -10947,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34">
       <c r="A33">
         <v>3</v>
       </c>
@@ -11057,7 +11157,7 @@
         <v>0.28570000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34">
       <c r="A34">
         <v>3</v>
       </c>
@@ -11161,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34">
       <c r="A35">
         <v>4</v>
       </c>
@@ -11271,7 +11371,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34">
       <c r="A36">
         <v>4</v>
       </c>
@@ -11375,7 +11475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34">
       <c r="A37">
         <v>5</v>
       </c>
@@ -11485,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34">
       <c r="A38">
         <v>5</v>
       </c>
@@ -11589,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34">
       <c r="G39" s="8" t="s">
         <v>33</v>
       </c>
@@ -11600,7 +11700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34">
       <c r="G40" s="8">
         <f>AVERAGE(G29:G38)</f>
         <v>1</v>
@@ -11614,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34">
       <c r="G41" s="8" t="s">
         <v>30</v>
       </c>
@@ -11625,7 +11725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34">
       <c r="G42" s="8">
         <f>STDEV(G29:G38)</f>
         <v>0</v>
@@ -11639,31 +11739,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34">
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34">
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34">
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34">
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34">
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34">
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34">
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34">
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" s="1" customFormat="1">
       <c r="A51">
         <v>1</v>
       </c>
@@ -11768,7 +11868,7 @@
         <v>0.43333300000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34">
       <c r="A52">
         <v>2</v>
       </c>
@@ -11873,7 +11973,7 @@
         <v>0.41666700000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" s="2" customFormat="1">
       <c r="A53" s="2">
         <v>3</v>
       </c>
@@ -11984,7 +12084,7 @@
         <v>0.14285700000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A54" s="2">
         <v>4</v>
       </c>
@@ -12095,7 +12195,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" ht="25" customHeight="1">
       <c r="A55">
         <v>5</v>
       </c>
@@ -12206,7 +12306,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34">
       <c r="G56" s="8" t="s">
         <v>33</v>
       </c>
@@ -12217,7 +12317,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34">
       <c r="G57" s="8">
         <f>AVERAGE(G51:G55)</f>
         <v>1</v>
@@ -12231,7 +12331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34">
       <c r="G58" s="8" t="s">
         <v>30</v>
       </c>
@@ -12242,7 +12342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34">
       <c r="G59" s="8">
         <f>STDEV(G51:G55)</f>
         <v>0</v>
@@ -12262,16 +12362,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -12300,7 +12400,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -12329,7 +12429,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12358,7 +12458,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -12387,7 +12487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1</v>
       </c>
@@ -12416,7 +12516,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1</v>
       </c>
@@ -12445,7 +12545,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -12474,7 +12574,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1</v>
       </c>
@@ -12503,7 +12603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -12532,7 +12632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>1</v>
       </c>
@@ -12561,7 +12661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -12590,7 +12690,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>1</v>
       </c>
@@ -12619,7 +12719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>0.66666666666666663</v>
       </c>
@@ -12648,7 +12748,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>0.4</v>
       </c>
@@ -12677,7 +12777,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>0.5</v>
       </c>
@@ -12706,7 +12806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>0.4</v>
       </c>
@@ -12735,7 +12835,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>0.5</v>
       </c>
@@ -12764,7 +12864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>0</v>
       </c>
@@ -12793,7 +12893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>0.66666666666666663</v>
       </c>
@@ -12822,7 +12922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>0</v>
       </c>
@@ -12851,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>0.4</v>
       </c>
@@ -12880,7 +12980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>0</v>
       </c>
@@ -12909,7 +13009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>0.4</v>
       </c>
@@ -12938,7 +13038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>0</v>
       </c>
@@ -12967,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>0.66666666666666663</v>
       </c>
@@ -12996,7 +13096,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>0</v>
       </c>
@@ -13025,7 +13125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>0.58333333333333337</v>
       </c>
@@ -13054,7 +13154,7 @@
         <v>0.58333299999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>0.45</v>
       </c>
@@ -13083,7 +13183,7 @@
         <v>0.83333000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>0.53333333333333333</v>
       </c>
@@ -13112,7 +13212,7 @@
         <v>0.35555599999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>0.7</v>
       </c>
@@ -13141,7 +13241,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>0.45</v>
       </c>
@@ -13170,7 +13270,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>1</v>
       </c>
@@ -13199,7 +13299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>1</v>
       </c>
@@ -13228,7 +13328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>1</v>
       </c>
@@ -13257,7 +13357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>0.66666666666666663</v>
       </c>
@@ -13286,7 +13386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>0.5</v>
       </c>
@@ -13315,7 +13415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>0.4</v>
       </c>
@@ -13344,7 +13444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>0.66666666666666663</v>
       </c>
@@ -13373,7 +13473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>0.4</v>
       </c>
@@ -13402,7 +13502,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>1</v>
       </c>
@@ -13431,7 +13531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>0.66666666666666663</v>
       </c>
@@ -13460,7 +13560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>0.2857142857142857</v>
       </c>
@@ -13489,7 +13589,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>0.66666666666666663</v>
       </c>
@@ -13518,7 +13618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>0.5</v>
       </c>
@@ -13547,7 +13647,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>0.2857142857142857</v>
       </c>
@@ -13576,7 +13676,7 @@
         <v>0.28571400000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>0.66666666666666663</v>
       </c>
@@ -13605,7 +13705,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>1</v>
       </c>
@@ -13634,7 +13734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>0</v>
       </c>
@@ -13663,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>0.4</v>
       </c>
@@ -13692,7 +13792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>0</v>
       </c>
@@ -13721,7 +13821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>0.66666666666666663</v>
       </c>
@@ -13750,7 +13850,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>0</v>
       </c>
@@ -13779,7 +13879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>0.66666666666666663</v>
       </c>
@@ -13808,7 +13908,7 @@
         <v>0.66666700000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>0</v>
       </c>
@@ -13837,7 +13937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>0</v>
       </c>
@@ -13866,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>0</v>
       </c>
@@ -13895,7 +13995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>0.83333333333333337</v>
       </c>
@@ -13924,7 +14024,7 @@
         <v>0.57777800000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>0.66666666666666663</v>
       </c>
@@ -13953,7 +14053,7 @@
         <v>0.52222199999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>0.58333333333333337</v>
       </c>
@@ -13982,7 +14082,7 @@
         <v>0.64285700000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>0.83333333333333337</v>
       </c>
@@ -14011,7 +14111,7 @@
         <v>0.466667</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>0.25</v>
       </c>
@@ -14040,7 +14140,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>1</v>
       </c>
@@ -14069,7 +14169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>0.66666666666666663</v>
       </c>
@@ -14098,7 +14198,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>1</v>
       </c>
@@ -14127,7 +14227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>0.25</v>
       </c>
@@ -14156,7 +14256,7 @@
         <v>0.28570000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>0.33333333333333337</v>
       </c>
@@ -14185,7 +14285,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>0.5</v>
       </c>
@@ -14214,7 +14314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>0.22222222222222221</v>
       </c>
@@ -14243,7 +14343,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>0.2857142857142857</v>
       </c>
@@ -14272,7 +14372,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>0.5</v>
       </c>
@@ -14301,7 +14401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>0.22222222222222221</v>
       </c>
@@ -14330,7 +14430,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>0.25</v>
       </c>
@@ -14359,7 +14459,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>0.66666666666666663</v>
       </c>
@@ -14388,7 +14488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>0.19999999999999998</v>
       </c>
@@ -14417,7 +14517,7 @@
         <v>0.28570000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>0.25</v>
       </c>
@@ -14446,7 +14546,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>0.5</v>
       </c>
@@ -14475,7 +14575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>1</v>
       </c>
@@ -14504,7 +14604,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>0</v>
       </c>
@@ -14533,7 +14633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>0.66666666666666663</v>
       </c>
@@ -14562,7 +14662,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>0</v>
       </c>
@@ -14591,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>0.5</v>
       </c>
@@ -14620,7 +14720,7 @@
         <v>0.28570000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>0</v>
       </c>
@@ -14649,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>0.19999999999999998</v>
       </c>
@@ -14678,7 +14778,7 @@
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>0</v>
       </c>
@@ -14707,7 +14807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>0.19999999999999998</v>
       </c>
@@ -14736,7 +14836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>0</v>
       </c>
@@ -14765,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>0.83333333333333337</v>
       </c>
@@ -14794,7 +14894,7 @@
         <v>0.43333300000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>0.66666666666666663</v>
       </c>
@@ -14823,7 +14923,7 @@
         <v>0.41666700000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>0.25</v>
       </c>
@@ -14852,7 +14952,7 @@
         <v>0.14285700000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>0.25</v>
       </c>
@@ -14881,7 +14981,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>0.2857142857142857</v>
       </c>
@@ -14910,7 +15010,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -14936,7 +15036,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93">
         <f>AVERAGE(A2:A91)</f>
         <v>0.49022927689594353</v>
@@ -14974,7 +15074,7 @@
         <v>0.5624216444444442</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -14997,7 +15097,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95">
         <f>STDEV(A2:A91)</f>
         <v>0.33322024639585174</v>
@@ -15033,6 +15133,3906 @@
       <c r="I95" s="4">
         <f t="shared" si="1"/>
         <v>0.36718923416429922</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F018304-602E-F64A-9A06-C1863B7B5A3F}">
+  <dimension ref="A1:P78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="50.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>149</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>149</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>48</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="L3">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>48</v>
+      </c>
+      <c r="F5">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.111111</v>
+      </c>
+      <c r="L5">
+        <v>9.5238100000000006E-2</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.111111</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>115</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>115</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.4</v>
+      </c>
+      <c r="L7">
+        <v>0.4</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.4</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>304</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>304</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>75</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>115</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>115</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>74</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>74</v>
+      </c>
+      <c r="F15">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <v>0.5</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.5</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>74</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>74</v>
+      </c>
+      <c r="F17">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.25</v>
+      </c>
+      <c r="L17">
+        <v>0.25</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.25</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>439</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>439</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>149</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>149</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>48</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="L23">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>48</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>48</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.5</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>71</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>71</v>
+      </c>
+      <c r="F26">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="L26">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>26</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>115</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>115</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>74</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>74</v>
+      </c>
+      <c r="F31">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G31">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0.5</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>74</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>74</v>
+      </c>
+      <c r="F33">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G33">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H33">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.25</v>
+      </c>
+      <c r="L33">
+        <v>0.25</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0.25</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>115</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>115</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>74</v>
+      </c>
+      <c r="F35">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G35">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H35">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0.5</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0.5</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>74</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>74</v>
+      </c>
+      <c r="F37">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G37">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H37">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0.25</v>
+      </c>
+      <c r="L37">
+        <v>0.25</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0.25</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>0.5</v>
+      </c>
+      <c r="G38">
+        <v>0.5</v>
+      </c>
+      <c r="H38">
+        <v>0.5</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0.5</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0.5</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>52</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>52</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>23</v>
+      </c>
+      <c r="F41">
+        <v>0.25</v>
+      </c>
+      <c r="G41">
+        <v>0.25</v>
+      </c>
+      <c r="H41">
+        <v>0.25</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0.25</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0.25</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>115</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>115</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>74</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>74</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0.4</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0.4</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>74</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>74</v>
+      </c>
+      <c r="F45">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G45">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H45">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="L45">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>75</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>75</v>
+      </c>
+      <c r="F46">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G46">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H46">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0.5</v>
+      </c>
+      <c r="O46">
+        <v>3</v>
+      </c>
+      <c r="P46">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>40</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>40</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>264</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>264</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>115</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>115</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>3</v>
+      </c>
+      <c r="P50">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>74</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>74</v>
+      </c>
+      <c r="F51">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G51">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H51">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0.5</v>
+      </c>
+      <c r="L51">
+        <v>0.5</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0.5</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>74</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>74</v>
+      </c>
+      <c r="F53">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="G53">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H53">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0.25</v>
+      </c>
+      <c r="L53">
+        <v>0.25</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0.25</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>115</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>115</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="P54">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>74</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>74</v>
+      </c>
+      <c r="F55">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G55">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H55">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0.5</v>
+      </c>
+      <c r="L55">
+        <v>0.5</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0.5</v>
+      </c>
+      <c r="O55">
+        <v>2</v>
+      </c>
+      <c r="P55">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>74</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>74</v>
+      </c>
+      <c r="F57">
+        <v>0.5</v>
+      </c>
+      <c r="G57">
+        <v>0.5</v>
+      </c>
+      <c r="H57">
+        <v>0.5</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="L57">
+        <v>0.5</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>101</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>101</v>
+      </c>
+      <c r="F58">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G58">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H58">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0.5</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>48</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>48</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>40</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>40</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>40</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>40</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>74</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>74</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>48</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>48</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>26</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>26</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>74</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>74</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>2</v>
+      </c>
+      <c r="P69">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>74</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>74</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>2</v>
+      </c>
+      <c r="P70">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>52</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>52</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>74</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>74</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>40</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>40</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>74</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>74</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>2</v>
+      </c>
+      <c r="P74">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>74</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>2</v>
+      </c>
+      <c r="P75">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77">
+        <f xml:space="preserve"> AVERAGE(F2:F76)</f>
+        <v>0.17000001333333334</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ref="G77:N77" si="0" xml:space="preserve"> AVERAGE(G2:G76)</f>
+        <v>0.17000001333333334</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="0"/>
+        <v>0.17000001333333334</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="0"/>
+        <v>8.0402106666666667E-2</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="0"/>
+        <v>0.11660317466666668</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="0"/>
+        <v>0.10373544</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" t="s">
+        <v>121</v>
+      </c>
+      <c r="F78">
+        <f>STDEV(F2:F76)</f>
+        <v>0.29204935239485907</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ref="G78:N78" si="1">STDEV(G2:G76)</f>
+        <v>0.29204935239485907</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>0.29204935239485907</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="1"/>
+        <v>0.1567417044586733</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>0.21415519216527903</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="1"/>
+        <v>0.17661564908635835</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results/polling_etl.xlsx
+++ b/experiment_results/polling_etl.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yguo/RubymineProjects/altar/experiment_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B2BB70-A66B-CE41-8CCB-73DB05687F01}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48520" yWindow="840" windowWidth="41540" windowHeight="25080" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40360" yWindow="460" windowWidth="41540" windowHeight="25080" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="polling_Simple" sheetId="1" r:id="rId1"/>
     <sheet name="polling_Moderate" sheetId="2" r:id="rId2"/>
     <sheet name="polling_Complex" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Join" sheetId="5" r:id="rId5"/>
+    <sheet name="Join SFL" sheetId="5" r:id="rId5"/>
+    <sheet name="JOIN JFL" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="123">
   <si>
     <t>Nodes</t>
   </si>
@@ -397,6 +399,9 @@
   </si>
   <si>
     <t>STD</t>
+  </si>
+  <si>
+    <t>result</t>
   </si>
 </sst>
 </file>
@@ -15144,7 +15149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F018304-602E-F64A-9A06-C1863B7B5A3F}">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -19038,4 +19043,1723 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A6F00D-F564-B04C-8A89-EAD147467DE0}">
+  <dimension ref="A1:D124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>118</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="C124">
+        <f>AVERAGE(C2:C121)</f>
+        <v>1.4833333333333334</v>
+      </c>
+      <c r="D124">
+        <f>SUM(D2:D121)/150</f>
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>